--- a/ATP Assays/HNM 2 ATP Assay.xlsx
+++ b/ATP Assays/HNM 2 ATP Assay.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="210" documentId="8_{69DE6AC7-EA7C-42D9-8B88-AB532B80CF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3E23788-8424-41EF-9659-E8D677695BDB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5CF07231-BA1A-4F3A-BF46-398947A2AC6A}"/>
+    <workbookView minimized="1" xWindow="8925" yWindow="1230" windowWidth="19035" windowHeight="14880" activeTab="1" xr2:uid="{5CF07231-BA1A-4F3A-BF46-398947A2AC6A}"/>
   </bookViews>
   <sheets>
     <sheet name="End point" sheetId="6" r:id="rId1"/>
@@ -2384,6 +2384,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3108,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4CD958-CE04-4D83-B81E-1A8D2900EF9F}">
   <dimension ref="C1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="O22" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39:Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
